--- a/materials/readAloud-ldt/stimuli/readAloud/readAloud-stimuli_coding.xlsx
+++ b/materials/readAloud-ldt/stimuli/readAloud/readAloud-stimuli_coding.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessraissouni/github/brainBox/brainy-ideas/readAloud-valence-jess/stimuli/readAloud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessraissouni/github/readAloud-valence-dataset/materials/readAloud-ldt/stimuli/readAloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3C1F9-F0C6-884D-BF8E-5A57C8D2864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7ABDF-B82F-EC48-A4D3-A845E764EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1920" windowWidth="27640" windowHeight="9900" xr2:uid="{64BEA42B-0FCC-E44A-8151-F26A63B588A7}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="27640" windowHeight="9080" xr2:uid="{64BEA42B-0FCC-E44A-8151-F26A63B588A7}"/>
   </bookViews>
   <sheets>
     <sheet name="pos-neg_dolphins" sheetId="2" r:id="rId1"/>
+    <sheet name="neg-pos_mantis" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="434">
   <si>
     <t>in</t>
   </si>
@@ -742,6 +743,591 @@
   </si>
   <si>
     <t>death.</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>bur</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>barbed</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>snag</t>
+  </si>
+  <si>
+    <t>blud</t>
+  </si>
+  <si>
+    <t>vic</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>ter</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>claw</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>-tis</t>
+  </si>
+  <si>
+    <t>-gres</t>
+  </si>
+  <si>
+    <t>-sive</t>
+  </si>
+  <si>
+    <t>cru</t>
+  </si>
+  <si>
+    <t>-cean</t>
+  </si>
+  <si>
+    <t>-lone</t>
+  </si>
+  <si>
+    <t>-ta</t>
+  </si>
+  <si>
+    <t>-row</t>
+  </si>
+  <si>
+    <t>mere</t>
+  </si>
+  <si>
+    <t>hunt.</t>
+  </si>
+  <si>
+    <t>There</t>
+  </si>
+  <si>
+    <t>-te</t>
+  </si>
+  <si>
+    <t>-go</t>
+  </si>
+  <si>
+    <t>-ries</t>
+  </si>
+  <si>
+    <t>-rers"</t>
+  </si>
+  <si>
+    <t>poin</t>
+  </si>
+  <si>
+    <t>-ty</t>
+  </si>
+  <si>
+    <t>-ty,</t>
+  </si>
+  <si>
+    <t>shrimp.</t>
+  </si>
+  <si>
+    <t>"Spea</t>
+  </si>
+  <si>
+    <t>fore</t>
+  </si>
+  <si>
+    <t>-limbs</t>
+  </si>
+  <si>
+    <t>prey.</t>
+  </si>
+  <si>
+    <t>"Sma</t>
+  </si>
+  <si>
+    <t>-shers"</t>
+  </si>
+  <si>
+    <t>-geon</t>
+  </si>
+  <si>
+    <t>-tims</t>
+  </si>
+  <si>
+    <t>-sized,</t>
+  </si>
+  <si>
+    <t>-like</t>
+  </si>
+  <si>
+    <t>-pen</t>
+  </si>
+  <si>
+    <t>-dage.</t>
+  </si>
+  <si>
+    <t>-ri</t>
+  </si>
+  <si>
+    <t>-fy</t>
+  </si>
+  <si>
+    <t>wea</t>
+  </si>
+  <si>
+    <t>-pon</t>
+  </si>
+  <si>
+    <t>strikes</t>
+  </si>
+  <si>
+    <t>-shot;</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>bub</t>
+  </si>
+  <si>
+    <t>-bles</t>
+  </si>
+  <si>
+    <t>-round</t>
+  </si>
+  <si>
+    <t>-for</t>
+  </si>
+  <si>
+    <t>-nate</t>
+  </si>
+  <si>
+    <t>-sa</t>
+  </si>
+  <si>
+    <t>-ry.</t>
+  </si>
+  <si>
+    <t>shrimp's</t>
+  </si>
+  <si>
+    <t>-tim</t>
+  </si>
+  <si>
+    <t>twice:</t>
+  </si>
+  <si>
+    <t>-wave,</t>
+  </si>
+  <si>
+    <t>-ther</t>
+  </si>
+  <si>
+    <t>-ly.</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>stalks</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>spe</t>
+  </si>
+  <si>
+    <t>pho</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>pea</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>-mi</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>-bat</t>
+  </si>
+  <si>
+    <t>-gin</t>
+  </si>
+  <si>
+    <t>-ma</t>
+  </si>
+  <si>
+    <t>-zing</t>
+  </si>
+  <si>
+    <t>-bo</t>
+  </si>
+  <si>
+    <t>-rate</t>
+  </si>
+  <si>
+    <t>-su</t>
+  </si>
+  <si>
+    <t>-al</t>
+  </si>
+  <si>
+    <t>-tem</t>
+  </si>
+  <si>
+    <t>-co</t>
+  </si>
+  <si>
+    <t>-vered.</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>-balls</t>
+  </si>
+  <si>
+    <t>moun</t>
+  </si>
+  <si>
+    <t>-de</t>
+  </si>
+  <si>
+    <t>-dent</t>
+  </si>
+  <si>
+    <t>-ther;</t>
+  </si>
+  <si>
+    <t>-ball</t>
+  </si>
+  <si>
+    <t>-so</t>
+  </si>
+  <si>
+    <t>-no</t>
+  </si>
+  <si>
+    <t>-sion.</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>-ge</t>
+  </si>
+  <si>
+    <t>-ther,</t>
+  </si>
+  <si>
+    <t>-van</t>
+  </si>
+  <si>
+    <t>-ges</t>
+  </si>
+  <si>
+    <t>-vide</t>
+  </si>
+  <si>
+    <t>-cep</t>
+  </si>
+  <si>
+    <t>What's</t>
+  </si>
+  <si>
+    <t>more,</t>
+  </si>
+  <si>
+    <t>-cies</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>-teen</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>-to</t>
+  </si>
+  <si>
+    <t>-re</t>
+  </si>
+  <si>
+    <t>-tor</t>
+  </si>
+  <si>
+    <t>cells,</t>
+  </si>
+  <si>
+    <t>-ving</t>
+  </si>
+  <si>
+    <t>-wer</t>
+  </si>
+  <si>
+    <t>-ceive</t>
+  </si>
+  <si>
+    <t>-mense</t>
+  </si>
+  <si>
+    <t>-bow</t>
+  </si>
+  <si>
+    <t>-lor,</t>
+  </si>
+  <si>
+    <t>-tra</t>
+  </si>
+  <si>
+    <t>-o</t>
+  </si>
+  <si>
+    <t>-let</t>
+  </si>
+  <si>
+    <t>red.</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>-lored</t>
+  </si>
+  <si>
+    <t>-selves,</t>
+  </si>
+  <si>
+    <t>-trac</t>
+  </si>
+  <si>
+    <t>-tive</t>
+  </si>
+  <si>
+    <t>prized</t>
+  </si>
+  <si>
+    <t>-cock</t>
+  </si>
+  <si>
+    <t>-tis.</t>
+  </si>
+  <si>
+    <t>These</t>
+  </si>
+  <si>
+    <t>-ceans</t>
+  </si>
+  <si>
+    <t>-lor</t>
+  </si>
+  <si>
+    <t>-cial</t>
+  </si>
+  <si>
+    <t>-guage</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>-ring</t>
+  </si>
+  <si>
+    <t>-als,</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>-selves</t>
+  </si>
+  <si>
+    <t>-brant,</t>
+  </si>
+  <si>
+    <t>flo</t>
+  </si>
+  <si>
+    <t>-res</t>
+  </si>
+  <si>
+    <t>-cent</t>
+  </si>
+  <si>
+    <t>-lors</t>
+  </si>
+  <si>
+    <t>see.</t>
+  </si>
+  <si>
+    <t>syllable dropped (0=no, 1=yes)</t>
   </si>
 </sst>
 </file>
@@ -785,10 +1371,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A78CB6E-866C-C44E-834D-C1F9AA149264}">
-  <dimension ref="A1:LO4"/>
+  <dimension ref="A1:LO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,6 +2696,1137 @@
         <v>78</v>
       </c>
     </row>
+    <row r="5" spans="1:327" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C10A5-2888-194F-85FE-A275683C1E0E}">
+  <dimension ref="A1:MY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:363" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W1" t="s">
+        <v>245</v>
+      </c>
+      <c r="X1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>312</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DB1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DK1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="DL1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DM1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DO1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="DQ1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>320</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>266</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DX1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>322</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>269</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>50</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EK1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EM1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>15</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>29</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>273</v>
+      </c>
+      <c r="ER1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>326</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>74</v>
+      </c>
+      <c r="EW1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="EX1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>359</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>360</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>327</v>
+      </c>
+      <c r="FC1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>328</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>329</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FH1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="FI1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>12</v>
+      </c>
+      <c r="FN1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="FO1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="FR1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="FS1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="FT1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>339</v>
+      </c>
+      <c r="FV1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="FW1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>331</v>
+      </c>
+      <c r="FY1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="GA1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="GC1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="GD1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>372</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>333</v>
+      </c>
+      <c r="GG1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>4</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>374</v>
+      </c>
+      <c r="GJ1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>334</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>20</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>335</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="GQ1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="GR1" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="GS1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>15</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>336</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GW1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>336</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>333</v>
+      </c>
+      <c r="GZ1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>330</v>
+      </c>
+      <c r="HB1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>245</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>337</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>338</v>
+      </c>
+      <c r="HG1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="HI1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>339</v>
+      </c>
+      <c r="HK1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="HN1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>340</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>339</v>
+      </c>
+      <c r="HQ1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="HR1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>265</v>
+      </c>
+      <c r="HT1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="HU1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="HV1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>86</v>
+      </c>
+      <c r="HX1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>41</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="IA1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>27</v>
+      </c>
+      <c r="IE1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="IF1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>341</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>342</v>
+      </c>
+      <c r="II1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="IJ1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>389</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>390</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>343</v>
+      </c>
+      <c r="IO1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>15</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="IR1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>26</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>392</v>
+      </c>
+      <c r="IV1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>394</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>15</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>344</v>
+      </c>
+      <c r="IZ1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="JA1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JB1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JC1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>398</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>345</v>
+      </c>
+      <c r="JF1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>346</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>75</v>
+      </c>
+      <c r="JJ1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>21</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>342</v>
+      </c>
+      <c r="JM1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>347</v>
+      </c>
+      <c r="JP1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>348</v>
+      </c>
+      <c r="JR1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>15</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>332</v>
+      </c>
+      <c r="JU1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>349</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>350</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>351</v>
+      </c>
+      <c r="JY1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="JZ1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="KA1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="KB1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>352</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>408</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>409</v>
+      </c>
+      <c r="KG1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>3</v>
+      </c>
+      <c r="KI1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>239</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>4</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>353</v>
+      </c>
+      <c r="KM1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>332</v>
+      </c>
+      <c r="KO1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>346</v>
+      </c>
+      <c r="KQ1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>354</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>40</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>41</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>259</v>
+      </c>
+      <c r="KV1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="KW1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>20</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>414</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>355</v>
+      </c>
+      <c r="LA1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="LC1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>417</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>278</v>
+      </c>
+      <c r="LF1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="LG1" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>250</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LJ1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>256</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>12</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>343</v>
+      </c>
+      <c r="LN1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>356</v>
+      </c>
+      <c r="LP1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>422</v>
+      </c>
+      <c r="LR1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>5</v>
+      </c>
+      <c r="LT1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="LV1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="LW1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>425</v>
+      </c>
+      <c r="LY1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="LZ1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MB1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="MC1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="MD1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="ME1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MG1" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MJ1" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>428</v>
+      </c>
+      <c r="ML1" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="MM1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>332</v>
+      </c>
+      <c r="MO1" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>249</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>56</v>
+      </c>
+      <c r="MR1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MT1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MV1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>239</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>99</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:363" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:363" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:363" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:363" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/materials/readAloud-ldt/stimuli/readAloud/readAloud-stimuli_coding.xlsx
+++ b/materials/readAloud-ldt/stimuli/readAloud/readAloud-stimuli_coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessraissouni/github/readAloud-valence-dataset/materials/readAloud-ldt/stimuli/readAloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7ABDF-B82F-EC48-A4D3-A845E764EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21300638-8925-6B46-A6F6-18909A577AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="27640" windowHeight="9080" xr2:uid="{64BEA42B-0FCC-E44A-8151-F26A63B588A7}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="27640" windowHeight="9080" activeTab="1" xr2:uid="{64BEA42B-0FCC-E44A-8151-F26A63B588A7}"/>
   </bookViews>
   <sheets>
     <sheet name="pos-neg_dolphins" sheetId="2" r:id="rId1"/>
@@ -1312,9 +1312,6 @@
     <t>-brant,</t>
   </si>
   <si>
-    <t>flo</t>
-  </si>
-  <si>
     <t>-res</t>
   </si>
   <si>
@@ -1328,6 +1325,9 @@
   </si>
   <si>
     <t>syllable dropped (0=no, 1=yes)</t>
+  </si>
+  <si>
+    <t>fluo</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A78CB6E-866C-C44E-834D-C1F9AA149264}">
   <dimension ref="A1:LO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="5" spans="1:327" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C10A5-2888-194F-85FE-A275683C1E0E}">
   <dimension ref="A1:MY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="MA1" workbookViewId="0">
+      <selection activeCell="MK2" sqref="MK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3762,19 +3762,19 @@
         <v>427</v>
       </c>
       <c r="MK1" t="s">
+        <v>433</v>
+      </c>
+      <c r="ML1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MM1" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="MM1" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="MN1" t="s">
         <v>332</v>
       </c>
       <c r="MO1" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="MP1" t="s">
         <v>249</v>
@@ -3804,7 +3804,7 @@
         <v>99</v>
       </c>
       <c r="MY1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:363" x14ac:dyDescent="0.2">
@@ -3824,7 +3824,7 @@
     </row>
     <row r="5" spans="1:363" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
